--- a/api/flisol_api2.xlsx
+++ b/api/flisol_api2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16480" windowHeight="10560"/>
+    <workbookView windowWidth="19740" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,8 +238,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -669,15 +669,15 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.75" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.875" customWidth="1"/>
+    <col min="2" max="2" width="36.375" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.75" customWidth="1"/>
     <col min="5" max="5" width="61" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1000,7 +1000,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1017,7 +1017,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1034,7 +1034,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/api/flisol_api2.xlsx
+++ b/api/flisol_api2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
   <si>
     <t>METHOD</t>
   </si>
@@ -152,7 +152,7 @@
     <t>Lista todos los equipos con su estado actual.</t>
   </si>
   <si>
-    <t>/Equipo/documento/1117516483/tipo/cedula</t>
+    <t>/Equipo/documento/1117516483/tipo/CEDULA</t>
   </si>
   <si>
     <r>
@@ -232,18 +232,21 @@
   <si>
     <t>Agrega el estado al equipo 9 junto con sus comentarios, estos comentarios es un parametro que se envia en formato json</t>
   </si>
+  <si>
+    <t>&lt;b&gt;Warning&lt;/b&gt;:  PDOStatement::execute(): SQLSTATE[23000]: Integrity constraint violation: 1062 Duplicate entry 'REGISTRO' for key 'tipo' in &lt;b&gt;/home/infinito/www/flisol_app/api/Util/NotORM/Result.php&lt;/b&gt; on line &lt;b&gt;161&lt;/b&gt;&lt;br /&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -252,6 +255,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="0"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -294,17 +303,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +330,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -666,10 +678,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -681,7 +693,7 @@
     <col min="5" max="5" width="61" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="33" spans="1:5">
+    <row r="12" ht="49.5" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -997,6 +1009,11 @@
       </c>
       <c r="E21" s="3" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="27" ht="115.5" spans="2:2">
+      <c r="B27" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/api/flisol_api2.xlsx
+++ b/api/flisol_api2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>METHOD</t>
   </si>
@@ -152,7 +152,7 @@
     <t>Lista todos los equipos con su estado actual.</t>
   </si>
   <si>
-    <t>/Equipo/documento/1117516483/tipo/CEDULA</t>
+    <t>/Equipo/documento/1117516483/tipo_documento/CEDULA</t>
   </si>
   <si>
     <r>
@@ -185,55 +185,28 @@
     <t>/Estado/equipo/1/tipo/INGRESO</t>
   </si>
   <si>
-    <t>Agrega el estado al equipo 1 junto con sus comentarios, estos comentarios es un parametro que se envia en formato json</t>
-  </si>
-  <si>
-    <t>/Estado/equipo/1/tipo/EN_INSTALACION</t>
-  </si>
-  <si>
-    <t>Agrega el estado al equipo 2 junto con sus comentarios, estos comentarios es un parametro que se envia en formato json</t>
-  </si>
-  <si>
-    <t>/Estado/equipo/1/tipo/INSTALANDO</t>
-  </si>
-  <si>
-    <t>Agrega el estado al equipo 3 junto con sus comentarios, estos comentarios es un parametro que se envia en formato json</t>
-  </si>
-  <si>
-    <t>/Estado/equipo/1/tipo/CONFIGURANDO</t>
-  </si>
-  <si>
-    <t>Agrega el estado al equipo 4 junto con sus comentarios, estos comentarios es un parametro que se envia en formato json</t>
-  </si>
-  <si>
-    <t>/Estado/equipo/1/tipo/TERMINADO</t>
-  </si>
-  <si>
-    <t>Agrega el estado al equipo 5 junto con sus comentarios, estos comentarios es un parametro que se envia en formato json</t>
-  </si>
-  <si>
-    <t>/Estado/equipo/1/tipo/SALIDA</t>
-  </si>
-  <si>
-    <t>Agrega el estado al equipo 6 junto con sus comentarios, estos comentarios es un parametro que se envia en formato json</t>
-  </si>
-  <si>
-    <t>Agrega el estado al equipo 7 junto con sus comentarios, estos comentarios es un parametro que se envia en formato json</t>
-  </si>
-  <si>
-    <t>/Estado/equipo/1/tipo/EN_RECEPCION</t>
-  </si>
-  <si>
-    <t>Agrega el estado al equipo 8 junto con sus comentarios, estos comentarios es un parametro que se envia en formato json</t>
-  </si>
-  <si>
-    <t>/Estado/equipo/1/tipo/ENTREGADO</t>
-  </si>
-  <si>
-    <t>Agrega el estado al equipo 9 junto con sus comentarios, estos comentarios es un parametro que se envia en formato json</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;Warning&lt;/b&gt;:  PDOStatement::execute(): SQLSTATE[23000]: Integrity constraint violation: 1062 Duplicate entry 'REGISTRO' for key 'tipo' in &lt;b&gt;/home/infinito/www/flisol_app/api/Util/NotORM/Result.php&lt;/b&gt; on line &lt;b&gt;161&lt;/b&gt;&lt;br /&gt;</t>
+    <t>Agrega el estado al equipo especificado junto con sus comentarios, estos comentarios es un parametro que se envia en formato json</t>
+  </si>
+  <si>
+    <t>EN_INSTALACION</t>
+  </si>
+  <si>
+    <t>INSTALANDO</t>
+  </si>
+  <si>
+    <t>CONFIGURADO</t>
+  </si>
+  <si>
+    <t>TERMINADO</t>
+  </si>
+  <si>
+    <t>SALIDA</t>
+  </si>
+  <si>
+    <t>EN_RECEPCION</t>
+  </si>
+  <si>
+    <t>ENTREGADO</t>
   </si>
 </sst>
 </file>
@@ -680,8 +653,8 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -899,122 +872,43 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" ht="33" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="5:5">
+      <c r="E14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3" t="s">
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="5:5">
+      <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="18" spans="5:5">
+      <c r="E18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="s">
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="20" spans="5:5">
+      <c r="E20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" ht="33" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" ht="33" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" ht="33" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" ht="33" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" ht="115.5" spans="2:2">
-      <c r="B27" s="6" t="s">
-        <v>51</v>
-      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
